--- a/团岛包/广告机变动资料/市场自检报告模板.xlsx
+++ b/团岛包/广告机变动资料/市场自检报告模板.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>农药残留</t>
   </si>
@@ -40,9 +39,6 @@
     <t>黄瓜</t>
   </si>
   <si>
-    <t>sc-35</t>
-  </si>
-  <si>
     <t>油菜</t>
   </si>
   <si>
@@ -61,9 +57,6 @@
     <t>青椒</t>
   </si>
   <si>
-    <t>sc-41</t>
-  </si>
-  <si>
     <t>小白菜</t>
   </si>
   <si>
@@ -73,25 +66,7 @@
     <t>sc-63</t>
   </si>
   <si>
-    <t>扁豆</t>
-  </si>
-  <si>
-    <t>sc-55</t>
-  </si>
-  <si>
-    <t>荷兰豆</t>
-  </si>
-  <si>
-    <t>sc-26</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
     <t>sc-15</t>
-  </si>
-  <si>
-    <t>青萝卜</t>
   </si>
   <si>
     <t>检测项目</t>
@@ -117,31 +92,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sc-43</t>
-  </si>
-  <si>
-    <t>sc-40</t>
-  </si>
-  <si>
     <t>sc-18</t>
   </si>
   <si>
-    <t>sc-33</t>
-  </si>
-  <si>
     <t>sc-28</t>
   </si>
   <si>
-    <t>sc-25</t>
-  </si>
-  <si>
-    <t>大头菜</t>
-  </si>
-  <si>
     <t>sc-48</t>
   </si>
   <si>
     <t>sc-60</t>
+  </si>
+  <si>
+    <t>sc-45</t>
+  </si>
+  <si>
+    <t>sc-08</t>
+  </si>
+  <si>
+    <t>sc-30</t>
+  </si>
+  <si>
+    <t>包菜</t>
+  </si>
+  <si>
+    <t>sc-12</t>
+  </si>
+  <si>
+    <t>sc-11</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>青豆</t>
+  </si>
+  <si>
+    <t>豇豆</t>
+  </si>
+  <si>
+    <t>sc-51</t>
   </si>
   <si>
     <r>
@@ -187,7 +177,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>9</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -273,17 +263,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:L37"/>
+  <dimension ref="B18:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:L19"/>
+      <selection activeCell="G19" sqref="G19:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -600,377 +598,390 @@
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="7:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="2" t="s">
+    <row r="18" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="G21" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="G23" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="G24" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="G26" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="L26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="G29" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="G30" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="L30" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="G31" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="G32" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="G33" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="G34" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L34" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="G35" s="6">
+        <v>42865</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G32" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="3">
-        <v>42864</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="L35" s="5" t="s">
         <v>3</v>
       </c>
     </row>
